--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/yao-chi_email_wustl_edu/Documents/NIPS2023/Public code/Synthetic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yao-chiyu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="403" documentId="11_714DEB8F4900CC2EC0694C477ABDDD704C915C93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4CF851B-2385-C146-B0E5-3C0FA3074924}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9DADD3-9455-6A49-9F63-D028E81152F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38040" yWindow="540" windowWidth="37100" windowHeight="19520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="2" r:id="rId1"/>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>accu_all</t>
-  </si>
-  <si>
-    <t>HC2</t>
   </si>
   <si>
     <t>Datasets</t>
@@ -235,8 +232,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>63300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
@@ -255,7 +252,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -614,9 +611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -626,57 +625,52 @@
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="3.83203125" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="15" width="13.6640625" customWidth="1"/>
+    <col min="8" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="13" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -700,21 +694,18 @@
         <v>1.8851724685807663</v>
       </c>
       <c r="I2">
-        <v>0.97877800000000004</v>
+        <v>38.086956521739133</v>
       </c>
       <c r="J2">
-        <v>38.086956521739133</v>
+        <v>46.260869565217391</v>
       </c>
       <c r="K2">
-        <v>46.260869565217391</v>
-      </c>
-      <c r="L2">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -738,21 +729,18 @@
         <v>19.0029237516523</v>
       </c>
       <c r="I3">
-        <v>0.23333300000000001</v>
+        <v>36.666666666666671</v>
       </c>
       <c r="J3">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="K3">
         <v>36.666666666666671</v>
       </c>
-      <c r="K3">
-        <v>56.666666666666664</v>
-      </c>
-      <c r="L3">
-        <v>36.666666666666671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -776,21 +764,18 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J4">
-        <v>25</v>
+        <v>97.5</v>
       </c>
       <c r="K4">
         <v>97.5</v>
       </c>
-      <c r="L4">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -814,21 +799,18 @@
         <v>1.5214515486254578</v>
       </c>
       <c r="I5">
-        <v>0.99259299999999995</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="J5">
-        <v>8.3333333333333339</v>
+        <v>62.777777777777786</v>
       </c>
       <c r="K5">
-        <v>62.777777777777786</v>
-      </c>
-      <c r="L5">
         <v>94.444444444444457</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -852,21 +834,18 @@
         <v>7.9056941504209481</v>
       </c>
       <c r="I6">
-        <v>0.57599999999999996</v>
+        <v>19</v>
       </c>
       <c r="J6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>23</v>
-      </c>
-      <c r="L6">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -890,21 +869,18 @@
         <v>3.842362754665257</v>
       </c>
       <c r="I7">
-        <v>0.90559800000000001</v>
+        <v>37.850678733031671</v>
       </c>
       <c r="J7">
-        <v>37.850678733031671</v>
+        <v>57.911010558069378</v>
       </c>
       <c r="K7">
-        <v>57.911010558069378</v>
-      </c>
-      <c r="L7">
         <v>42.858220211161388</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -928,21 +904,18 @@
         <v>0.9917355371900769</v>
       </c>
       <c r="I8">
-        <v>0.98743999999999998</v>
+        <v>86.181818181818173</v>
       </c>
       <c r="J8">
-        <v>86.181818181818173</v>
+        <v>97.454545454545467</v>
       </c>
       <c r="K8">
-        <v>97.454545454545467</v>
-      </c>
-      <c r="L8">
         <v>91.63636363636364</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -966,21 +939,18 @@
         <v>0.10647942749998961</v>
       </c>
       <c r="I9">
-        <v>0.67148300000000005</v>
+        <v>24.809523809523807</v>
       </c>
       <c r="J9">
-        <v>24.809523809523807</v>
+        <v>39.875457875457869</v>
       </c>
       <c r="K9">
-        <v>39.875457875457869</v>
-      </c>
-      <c r="L9">
         <v>26.917582417582416</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1004,21 +974,18 @@
         <v>2.1730674684008817</v>
       </c>
       <c r="I10">
-        <v>0.97814800000000002</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="J10">
-        <v>16.666666666666668</v>
+        <v>68.666666666666671</v>
       </c>
       <c r="K10">
-        <v>68.666666666666671</v>
-      </c>
-      <c r="L10">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1042,21 +1009,18 @@
         <v>0.20408629834367104</v>
       </c>
       <c r="I11">
-        <v>0.66875700000000005</v>
+        <v>63.989682279447585</v>
       </c>
       <c r="J11">
-        <v>63.989682279447585</v>
+        <v>68.716803346458576</v>
       </c>
       <c r="K11">
-        <v>68.716803346458576</v>
-      </c>
-      <c r="L11">
         <v>72.434636659004468</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -1080,21 +1044,18 @@
         <v>5.5918321841342431</v>
       </c>
       <c r="I12">
-        <v>0.55666700000000002</v>
+        <v>48.321858864027533</v>
       </c>
       <c r="J12">
-        <v>48.321858864027533</v>
+        <v>52.616179001721171</v>
       </c>
       <c r="K12">
-        <v>52.616179001721171</v>
-      </c>
-      <c r="L12">
         <v>52.885829030407344</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1118,21 +1079,18 @@
         <v>7.5837636894382001</v>
       </c>
       <c r="I13">
-        <v>0.463063</v>
+        <v>23.506012950971325</v>
       </c>
       <c r="J13">
-        <v>23.506012950971325</v>
+        <v>31.193339500462535</v>
       </c>
       <c r="K13">
-        <v>31.193339500462535</v>
-      </c>
-      <c r="L13">
         <v>47.012025901942636</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1156,21 +1114,18 @@
         <v>2.0749999999999997</v>
       </c>
       <c r="I14">
-        <v>0.34443099999999999</v>
+        <v>11.5</v>
       </c>
       <c r="J14">
-        <v>11.5</v>
+        <v>14.4</v>
       </c>
       <c r="K14">
-        <v>14.4</v>
-      </c>
-      <c r="L14">
         <v>43.7</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -1194,21 +1149,18 @@
         <v>3.348556245676237</v>
       </c>
       <c r="I15">
-        <v>0.76439000000000001</v>
+        <v>55.989159891598923</v>
       </c>
       <c r="J15">
-        <v>55.989159891598923</v>
+        <v>72.128876844323997</v>
       </c>
       <c r="K15">
-        <v>72.128876844323997</v>
-      </c>
-      <c r="L15">
         <v>61.872929840409519</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1232,21 +1184,18 @@
         <v>5.5032257655997059</v>
       </c>
       <c r="I16">
-        <v>0.911111</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="J16">
-        <v>5.5555555555555554</v>
+        <v>35.833333333333336</v>
       </c>
       <c r="K16">
-        <v>35.833333333333336</v>
-      </c>
-      <c r="L16">
         <v>64.444444444444443</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -1270,21 +1219,18 @@
         <v>3.9639437574324137</v>
       </c>
       <c r="I17">
-        <v>0.55347400000000002</v>
+        <v>7.5126903553299487</v>
       </c>
       <c r="J17">
-        <v>7.5126903553299487</v>
+        <v>28.284263959390863</v>
       </c>
       <c r="K17">
-        <v>28.284263959390863</v>
-      </c>
-      <c r="L17">
         <v>53.4365482233503</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1308,21 +1254,18 @@
         <v>5.0598510799901444</v>
       </c>
       <c r="I18">
-        <v>0.49566700000000002</v>
+        <v>48.687719298245618</v>
       </c>
       <c r="J18">
-        <v>48.687719298245618</v>
+        <v>52.112280701754386</v>
       </c>
       <c r="K18">
-        <v>52.112280701754386</v>
-      </c>
-      <c r="L18">
         <v>51.343859649122805</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -1346,21 +1289,18 @@
         <v>3.5950497515402193</v>
       </c>
       <c r="I19">
-        <v>0.84481499999999998</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="J19">
-        <v>16.666666666666668</v>
+        <v>65.2777777777778</v>
       </c>
       <c r="K19">
-        <v>65.2777777777778</v>
-      </c>
-      <c r="L19">
         <v>88.333333333333343</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1384,21 +1324,18 @@
         <v>2.5837028062465949E-3</v>
       </c>
       <c r="I20">
-        <v>0.99421599999999999</v>
+        <v>10.371179554276676</v>
       </c>
       <c r="J20">
-        <v>10.371179554276676</v>
+        <v>76.519085315063805</v>
       </c>
       <c r="K20">
-        <v>76.519085315063805</v>
-      </c>
-      <c r="L20">
         <v>91.038883171728727</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -1422,21 +1359,18 @@
         <v>1.2913223140495793</v>
       </c>
       <c r="I21">
-        <v>0.99749500000000002</v>
+        <v>55.227272727272727</v>
       </c>
       <c r="J21">
-        <v>55.227272727272727</v>
+        <v>79.090909090909093</v>
       </c>
       <c r="K21">
-        <v>79.090909090909093</v>
-      </c>
-      <c r="L21">
         <v>83.63636363636364</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -1460,21 +1394,18 @@
         <v>0.6677708679813289</v>
       </c>
       <c r="I22">
-        <v>0.30648199999999998</v>
+        <v>3.4343405941440381</v>
       </c>
       <c r="J22">
-        <v>3.4343405941440381</v>
+        <v>6.1187973155207844</v>
       </c>
       <c r="K22">
-        <v>6.1187973155207844</v>
-      </c>
-      <c r="L22">
         <v>5.8039884783789644</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -1498,21 +1429,18 @@
         <v>0.67076363615984202</v>
       </c>
       <c r="I23">
-        <v>0.89802599999999999</v>
+        <v>28.382513661202189</v>
       </c>
       <c r="J23">
-        <v>28.382513661202189</v>
+        <v>56.103825136612024</v>
       </c>
       <c r="K23">
-        <v>56.103825136612024</v>
-      </c>
-      <c r="L23">
         <v>77.907103825136602</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -1536,21 +1464,18 @@
         <v>0.39885982055745794</v>
       </c>
       <c r="I24">
-        <v>0.86962499999999998</v>
+        <v>50.267067003792668</v>
       </c>
       <c r="J24">
-        <v>50.267067003792668</v>
+        <v>59.16877370417194</v>
       </c>
       <c r="K24">
-        <v>59.16877370417194</v>
-      </c>
-      <c r="L24">
         <v>89.127686472819235</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -1574,21 +1499,18 @@
         <v>5.129891760425771</v>
       </c>
       <c r="I25">
-        <v>0.50777799999999995</v>
+        <v>48.157894736842103</v>
       </c>
       <c r="J25">
-        <v>48.157894736842103</v>
+        <v>50.789473684210535</v>
       </c>
       <c r="K25">
-        <v>50.789473684210535</v>
-      </c>
-      <c r="L25">
         <v>56.578947368421055</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -1612,21 +1534,18 @@
         <v>21.807236311728168</v>
       </c>
       <c r="I26">
-        <v>0.408889</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="J26">
-        <v>22.666666666666668</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>44</v>
-      </c>
-      <c r="L26">
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1650,15 +1569,12 @@
         <v>4.5878702814059871</v>
       </c>
       <c r="I27">
-        <v>0.92260399999999998</v>
+        <v>18.863636363636363</v>
       </c>
       <c r="J27">
-        <v>18.863636363636363</v>
+        <v>29.318181818181824</v>
       </c>
       <c r="K27">
-        <v>29.318181818181824</v>
-      </c>
-      <c r="L27">
         <v>70.454545454545453</v>
       </c>
     </row>
@@ -1671,7 +1587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9267AB3F-D354-F74A-8081-BB4E875BCE13}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -1679,10 +1595,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1">
         <v>20</v>
@@ -1768,7 +1684,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -1873,7 +1789,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
@@ -1898,7 +1814,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:F13" si="0">STDEV(B2:B12)</f>
@@ -1923,7 +1839,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1">
         <v>0.2</v>
